--- a/Servicio/Tipificacion Dynamics.xlsx
+++ b/Servicio/Tipificacion Dynamics.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Hoja1!$A$1:$I$223</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$I$223</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mho4FcBmhBk/KssfoNMmvGSqbSoGQ=="/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -20,824 +25,848 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="266">
   <si>
-    <t>Motivo de Consulta</t>
-  </si>
-  <si>
-    <t>Negocio</t>
-  </si>
-  <si>
-    <t>Tipología 3</t>
-  </si>
-  <si>
-    <t>Tipología 4</t>
-  </si>
-  <si>
-    <t>Prioridad</t>
-  </si>
-  <si>
-    <t>CPC/Escala</t>
-  </si>
-  <si>
-    <t>A quien escala</t>
-  </si>
-  <si>
-    <t>Posibles soluciones</t>
-  </si>
-  <si>
-    <t>Formulario campos obligatorios</t>
-  </si>
-  <si>
-    <t>Petición y/o Solicitud</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>Información general</t>
-  </si>
-  <si>
-    <t>Obsequios y Catalogos</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Escala</t>
-  </si>
-  <si>
-    <t>Proveedor</t>
-  </si>
-  <si>
-    <t>Cierre en primer contacto</t>
-  </si>
-  <si>
-    <t>Alianzas</t>
-  </si>
-  <si>
-    <t>Base de datos</t>
-  </si>
-  <si>
-    <t>Actualización Datos</t>
-  </si>
-  <si>
-    <t>Urgente</t>
-  </si>
-  <si>
-    <t>Su+</t>
-  </si>
-  <si>
-    <t>Obligatorios</t>
-  </si>
-  <si>
-    <t>Confirmación autorización datos</t>
-  </si>
-  <si>
-    <t>Hoja de Vida</t>
-  </si>
-  <si>
-    <t>Información de marca</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Compras Mayorista</t>
-  </si>
-  <si>
-    <t>Franquicias</t>
-  </si>
-  <si>
-    <t>Estrategias comerciales</t>
-  </si>
-  <si>
-    <t>Concursos</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Precios prendas</t>
-  </si>
-  <si>
-    <t>Información promociones</t>
-  </si>
-  <si>
-    <t>Política cambios</t>
-  </si>
-  <si>
-    <t>Personalización o reparación de prendas</t>
-  </si>
-  <si>
-    <t>Bono Regalo</t>
-  </si>
-  <si>
-    <t>Disponibilidad producto</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Asesoría de moda</t>
-  </si>
-  <si>
-    <t>Información Producto</t>
-  </si>
-  <si>
-    <t>Tienda Online</t>
-  </si>
-  <si>
-    <t>Cambios</t>
-  </si>
-  <si>
-    <t>No cumple expectativa (Color Errado)</t>
-  </si>
-  <si>
-    <t>No cumple expectativa (Fit)</t>
-  </si>
-  <si>
-    <t>No cumple expectativa (Color no gusto)</t>
-  </si>
-  <si>
-    <t>Proceso de compra</t>
-  </si>
-  <si>
-    <t>Acompañamiento compra</t>
-  </si>
-  <si>
-    <t>Seguimiento</t>
-  </si>
-  <si>
-    <t>Estado pedido</t>
-  </si>
-  <si>
-    <t>Estado transacción</t>
-  </si>
-  <si>
-    <t>Redimir saldo a favor</t>
-  </si>
-  <si>
-    <t>Información Promoción</t>
-  </si>
-  <si>
-    <t>Redención Cupón</t>
-  </si>
-  <si>
-    <t>Medios pago</t>
-  </si>
-  <si>
-    <t>Transportadora</t>
-  </si>
-  <si>
-    <t>Disponibilidad Prendas</t>
-  </si>
-  <si>
-    <t>Descripción del producto</t>
-  </si>
-  <si>
-    <t>Modificación pedido</t>
-  </si>
-  <si>
-    <t>Cambio dirección</t>
-  </si>
-  <si>
-    <t>Cancelación pedido</t>
-  </si>
-  <si>
-    <t>Copia factura</t>
-  </si>
-  <si>
-    <t>Retracto de compra</t>
-  </si>
-  <si>
-    <t>Política comerciales</t>
+    <t xml:space="preserve">Motivo de Consulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipología 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipología 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prioridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPC/Escala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quien escala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posibles soluciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario campos obligatorios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petición y/o Solicitud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obsequios y Catalogos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proveedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cierre en primer contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alianzas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualización Datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urgente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obligatorios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmación autorización datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoja de Vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información de marca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compras Mayorista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franquicias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrategias comerciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precios prendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información promociones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política cambios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personalización o reparación de prendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bono Regalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disponibilidad producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asesoría de moda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tienda Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No cumple expectativa (Color Errado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No cumple expectativa (Fit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No cumple expectativa (Color no gusto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso de compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acompañamiento compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado transacción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redimir saldo a favor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información Promoción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redención Cupón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medios pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportadora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disponibilidad Prendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción del producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificación pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio dirección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelación pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copia factura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retracto de compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política comerciales</t>
   </si>
   <si>
     <t xml:space="preserve">Cambios </t>
   </si>
   <si>
-    <t>Insatisfaccion</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Puntos</t>
+    <t xml:space="preserve">Insatisfaccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntos</t>
   </si>
   <si>
     <t xml:space="preserve">Consulta Puntos </t>
   </si>
   <si>
-    <t>Millas</t>
-  </si>
-  <si>
-    <t>Consulta Millas</t>
-  </si>
-  <si>
-    <t>Información Su+</t>
-  </si>
-  <si>
-    <t>Información ofertas</t>
-  </si>
-  <si>
-    <t>Información marcas aliadas</t>
-  </si>
-  <si>
-    <t>Tarjeta de Crédito</t>
-  </si>
-  <si>
-    <t>Cancelaciones</t>
-  </si>
-  <si>
-    <t>Cancelación de Tarjeta de Crédito</t>
-  </si>
-  <si>
-    <t>Actualización de Datos</t>
-  </si>
-  <si>
-    <t>Claves</t>
-  </si>
-  <si>
-    <t>Solicitud de Clave de Avances</t>
-  </si>
-  <si>
-    <t>Solicitud de Clave Consutla de Extractos (Clave Virtual)</t>
-  </si>
-  <si>
-    <t>Certificados y extractos</t>
-  </si>
-  <si>
-    <t>Entrega de Extractos</t>
-  </si>
-  <si>
-    <t>Solicitud de Paz y Salvos / Certificados</t>
-  </si>
-  <si>
-    <t>Transaccional</t>
-  </si>
-  <si>
-    <t>Solicitud de Rediferidos</t>
-  </si>
-  <si>
-    <t>Activación/Bloqueo</t>
-  </si>
-  <si>
-    <t>Bloqueo de Tarjeta de Crédito Pérdida o Robo</t>
-  </si>
-  <si>
-    <t>Activación de Tarjeta de Crédito</t>
-  </si>
-  <si>
-    <t>Información Proceso de adquisición y uso del producto</t>
-  </si>
-  <si>
-    <t>Información sobre Saldos, Deuda, Cuotas y Cupo disponible</t>
-  </si>
-  <si>
-    <t>Información de Tasas y Tarifas (Incluye cuota de manejo)</t>
-  </si>
-  <si>
-    <t>Información sobre Canales de Pago</t>
-  </si>
-  <si>
-    <t>Información sobre Funcionalidad del Producto</t>
-  </si>
-  <si>
-    <t>Plástico Tarjeta</t>
-  </si>
-  <si>
-    <t>Llegada de la Tarjeta a la tienda/residencia</t>
-  </si>
-  <si>
-    <t>Cupo</t>
-  </si>
-  <si>
-    <t>Aumento o Disminución de Cupo</t>
-  </si>
-  <si>
-    <t>Reposición de Plástico</t>
-  </si>
-  <si>
-    <t>Autogas</t>
-  </si>
-  <si>
-    <t>Servicio</t>
-  </si>
-  <si>
-    <t>Km errado</t>
-  </si>
-  <si>
-    <t>Productos</t>
-  </si>
-  <si>
-    <t>Disponibilidad SOAT</t>
-  </si>
-  <si>
-    <t>Descripción de producto</t>
-  </si>
-  <si>
-    <t>Servicios Adicionales</t>
-  </si>
-  <si>
-    <t>Comercial</t>
-  </si>
-  <si>
-    <t>Convenios</t>
-  </si>
-  <si>
-    <t>Compra mayorista</t>
-  </si>
-  <si>
-    <t>Promoción del mes</t>
-  </si>
-  <si>
-    <t>Portafolio de productos</t>
-  </si>
-  <si>
-    <t>Intercrédito</t>
-  </si>
-  <si>
-    <t>Acuerdo pago</t>
-  </si>
-  <si>
-    <t>Estado Cuenta</t>
-  </si>
-  <si>
-    <t>Pago Consignación</t>
-  </si>
-  <si>
-    <t>Clientes Reportados</t>
-  </si>
-  <si>
-    <t>Pedido Papelería</t>
+    <t xml:space="preserve">Millas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta Millas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información Su+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información ofertas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información marcas aliadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarjeta de Crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelación de Tarjeta de Crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualización de Datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud de Clave de Avances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud de Clave Consutla de Extractos (Clave Virtual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificados y extractos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de Extractos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud de Paz y Salvos / Certificados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaccional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud de Rediferidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activación/Bloqueo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloqueo de Tarjeta de Crédito Pérdida o Robo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activación de Tarjeta de Crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información Proceso de adquisición y uso del producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información sobre Saldos, Deuda, Cuotas y Cupo disponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información de Tasas y Tarifas (Incluye cuota de manejo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información sobre Canales de Pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información sobre Funcionalidad del Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plástico Tarjeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llegada de la Tarjeta a la tienda/residencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento o Disminución de Cupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reposición de Plástico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autogas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Km errado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disponibilidad SOAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción de producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios Adicionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra mayorista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promoción del mes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portafolio de productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercrédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acuerdo pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Cuenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago Consignación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clientes Reportados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedido Papelería</t>
   </si>
   <si>
     <t xml:space="preserve">Bonos Sodexo </t>
   </si>
   <si>
-    <t>Error Crédito</t>
-  </si>
-  <si>
-    <t>Anulación Empleado</t>
-  </si>
-  <si>
-    <t>Incremento cupo</t>
-  </si>
-  <si>
-    <t>Fecha Reportes</t>
-  </si>
-  <si>
-    <t>Cobro Cartera</t>
-  </si>
-  <si>
-    <t>Entrega Incentivos</t>
-  </si>
-  <si>
-    <t>Grabar acuerdo</t>
-  </si>
-  <si>
-    <t>Grabar llamada</t>
-  </si>
-  <si>
-    <t>Saldo Fenalco</t>
-  </si>
-  <si>
-    <t>Incomunicado Fenalcobra</t>
-  </si>
-  <si>
-    <t>Crédito Negado</t>
-  </si>
-  <si>
-    <t>Duda Geopos</t>
-  </si>
-  <si>
-    <t>Requisitos empleados</t>
-  </si>
-  <si>
-    <t>Teléfono Fenalcobra</t>
-  </si>
-  <si>
-    <t>Presupuesto Tiendas</t>
-  </si>
-  <si>
-    <t>Compra Cartera</t>
-  </si>
-  <si>
-    <t>Cartas Cobro</t>
-  </si>
-  <si>
-    <t>Paz Salvo</t>
-  </si>
-  <si>
-    <t>Empleados Reportados</t>
-  </si>
-  <si>
-    <t>Cliente Fallecido</t>
-  </si>
-  <si>
-    <t>Dudas tiendas</t>
-  </si>
-  <si>
-    <t>Datos equivocados</t>
-  </si>
-  <si>
-    <t>Retiro procrédito</t>
-  </si>
-  <si>
-    <t>Anulación Crédito</t>
-  </si>
-  <si>
-    <t>Sistema Crédito caído</t>
-  </si>
-  <si>
-    <t>Obtener Crédito</t>
-  </si>
-  <si>
-    <t>Queja y/o Reclamo</t>
-  </si>
-  <si>
-    <t>Desactivar Correo</t>
-  </si>
-  <si>
-    <t>Desactivar sms</t>
-  </si>
-  <si>
-    <t>Tienda</t>
-  </si>
-  <si>
-    <t>Sistema caído</t>
-  </si>
-  <si>
-    <t>Promoción tiendas</t>
-  </si>
-  <si>
-    <t>Precios altos</t>
-  </si>
-  <si>
-    <t>Cobro errado</t>
-  </si>
-  <si>
-    <t>Tarjeta regalo inactiva/ vencida</t>
-  </si>
-  <si>
-    <t>Atención mayoristas</t>
-  </si>
-  <si>
-    <t>Atención tiendas</t>
-  </si>
-  <si>
-    <t>Atención Call</t>
-  </si>
-  <si>
-    <t>Atención internacional</t>
-  </si>
-  <si>
-    <t>Ausencia de información</t>
-  </si>
-  <si>
-    <t>Exceso de comunicación</t>
-  </si>
-  <si>
-    <t>Contacto no autorizado</t>
-  </si>
-  <si>
-    <t>Queja general de producto</t>
-  </si>
-  <si>
-    <t>Calidad de producto</t>
+    <t xml:space="preserve">Error Crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anulación Empleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incremento cupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha Reportes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobro Cartera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega Incentivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grabar acuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grabar llamada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saldo Fenalco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incomunicado Fenalcobra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crédito Negado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duda Geopos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisitos empleados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono Fenalcobra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto Tiendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra Cartera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartas Cobro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paz y Salvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleados Reportados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente Fallecido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dudas tiendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos equivocados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retiro procrédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anulación Crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema Crédito caído</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtener Crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queja y/o Reclamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desactivar Correo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desactivar sms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tienda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema caído</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promoción tiendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precios altos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobro errado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarjeta regalo inactiva/ vencida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atención mayoristas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atención tiendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atención Call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atención internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausencia de información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceso de comunicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacto no autorizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queja general de producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidad de producto</t>
   </si>
   <si>
     <t xml:space="preserve">Espacio físico </t>
   </si>
   <si>
-    <t>Caso jurídico</t>
-  </si>
-  <si>
-    <t>SIC Publicidad</t>
-  </si>
-  <si>
-    <t>SIC Garantía</t>
-  </si>
-  <si>
-    <t>Acción popular</t>
+    <t xml:space="preserve">Caso jurídico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIC Publicidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIC Garantía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acción popular</t>
   </si>
   <si>
     <t xml:space="preserve">Derecho petición </t>
   </si>
   <si>
-    <t>Calidad - En garantía</t>
-  </si>
-  <si>
-    <t>Calidad - Fuera de garantía</t>
-  </si>
-  <si>
-    <t>Calidad - Tienda Online</t>
-  </si>
-  <si>
-    <t>Entrega de pedido</t>
-  </si>
-  <si>
-    <t>Retraso entrega</t>
-  </si>
-  <si>
-    <t>Términos promoción</t>
-  </si>
-  <si>
-    <t>Queja transportadora</t>
-  </si>
-  <si>
-    <t>Error en pedido</t>
-  </si>
-  <si>
-    <t>Pedido incompleto</t>
-  </si>
-  <si>
-    <t>Novedad en pedido</t>
-  </si>
-  <si>
-    <t>Producto agotado</t>
-  </si>
-  <si>
-    <t>Calidad</t>
-  </si>
-  <si>
-    <t>Calidad2</t>
-  </si>
-  <si>
-    <t>Producto Errado</t>
-  </si>
-  <si>
-    <t>Trocado</t>
-  </si>
-  <si>
-    <t>Inconveniente web</t>
-  </si>
-  <si>
-    <t>Promoción no aplicada</t>
-  </si>
-  <si>
-    <t>Garantía</t>
-  </si>
-  <si>
-    <t>Talla</t>
-  </si>
-  <si>
-    <t>Redención Millas</t>
-  </si>
-  <si>
-    <t>Acumulación Millas</t>
-  </si>
-  <si>
-    <t>Acumulación Puntos</t>
-  </si>
-  <si>
-    <t>Redención Puntos</t>
-  </si>
-  <si>
-    <t>Políticas</t>
-  </si>
-  <si>
-    <t>Escaneo Cédula</t>
-  </si>
-  <si>
-    <t>Exclusión extranjeros</t>
-  </si>
-  <si>
-    <t>Descuentos</t>
-  </si>
-  <si>
-    <t>No aplicado aliados SU+</t>
-  </si>
-  <si>
-    <t>Desuscripción del programa</t>
-  </si>
-  <si>
-    <t>Desuscribir</t>
-  </si>
-  <si>
-    <t>Inconformidad servicio</t>
-  </si>
-  <si>
-    <t>Servicio Call TC</t>
-  </si>
-  <si>
-    <t>Servicio General</t>
-  </si>
-  <si>
-    <t>TC Negada</t>
-  </si>
-  <si>
-    <t>Promoción</t>
-  </si>
-  <si>
-    <t>Promoción tarjeta</t>
-  </si>
-  <si>
-    <t>Cobro</t>
-  </si>
-  <si>
-    <t>Cobranza de la Tarjeta</t>
-  </si>
-  <si>
-    <t>Fraude</t>
-  </si>
-  <si>
-    <t>Promociones y ofertas con la Tarjeta</t>
-  </si>
-  <si>
-    <t>Promoción no ofrecida</t>
-  </si>
-  <si>
-    <t>Servicio EDS</t>
-  </si>
-  <si>
-    <t>Servicio Call</t>
-  </si>
-  <si>
-    <t>Servicio Concesiones</t>
-  </si>
-  <si>
-    <t>Contaminación</t>
-  </si>
-  <si>
-    <t>Falla Motor</t>
-  </si>
-  <si>
-    <t>Suministro errado</t>
-  </si>
-  <si>
-    <t>Producto Agotado</t>
-  </si>
-  <si>
-    <t>Rendimiento</t>
-  </si>
-  <si>
-    <t>Facturación</t>
-  </si>
-  <si>
-    <t>Factura retrasada</t>
-  </si>
-  <si>
-    <t>Factura inexistente</t>
-  </si>
-  <si>
-    <t>Factura Perdida</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>Precio Errado</t>
-  </si>
-  <si>
-    <t>Información</t>
-  </si>
-  <si>
-    <t>Información Inoportuna</t>
-  </si>
-  <si>
-    <t>Chip</t>
-  </si>
-  <si>
-    <t>Chip No Leido</t>
-  </si>
-  <si>
-    <t>Baño</t>
-  </si>
-  <si>
-    <t>Baño no disponible</t>
-  </si>
-  <si>
-    <t>Baño Descuidado</t>
-  </si>
-  <si>
-    <t>Vehiculo</t>
-  </si>
-  <si>
-    <t>Tapa Tanque</t>
-  </si>
-  <si>
-    <t>Instalaciones</t>
-  </si>
-  <si>
-    <t>Instalación afectada</t>
-  </si>
-  <si>
-    <t>Billete Falso</t>
-  </si>
-  <si>
-    <t>Protocolos</t>
-  </si>
-  <si>
-    <t>Inconformidad con protocolo</t>
-  </si>
-  <si>
-    <t>Robo</t>
-  </si>
-  <si>
-    <t>Robo EDS</t>
-  </si>
-  <si>
-    <t>Descripcion errada de producto</t>
-  </si>
-  <si>
-    <t>Equipos defectuosos</t>
-  </si>
-  <si>
-    <t>Exceso de Ruido</t>
-  </si>
-  <si>
-    <t>Suministro</t>
-  </si>
-  <si>
-    <t>Surtidor en ceros</t>
-  </si>
-  <si>
-    <t>Daño de vehiculo</t>
-  </si>
-  <si>
-    <t>Señalización</t>
-  </si>
-  <si>
-    <t>Inconformidad con promoción</t>
-  </si>
-  <si>
-    <t>On the Run</t>
-  </si>
-  <si>
-    <t>Agotado On the Run</t>
-  </si>
-  <si>
-    <t>Sistema</t>
-  </si>
-  <si>
-    <t>Datafono</t>
-  </si>
-  <si>
-    <t>Parqueadero</t>
-  </si>
-  <si>
-    <t>Parqueadero no disponible</t>
-  </si>
-  <si>
-    <t>Información crédito incorrecta</t>
-  </si>
-  <si>
-    <t>Saldo no actualizado</t>
-  </si>
-  <si>
-    <t>Sugerencia</t>
-  </si>
-  <si>
-    <t>Asesoría y experiencia</t>
+    <t xml:space="preserve">Calidad - En garantía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidad - Fuera de garantía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidad - Tienda Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retraso entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Términos promoción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queja transportadora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error en pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedido incompleto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novedad en pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producto agotado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidad2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producto Errado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trocado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inconveniente web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promoción no aplicada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redención Millas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acumulación Millas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acumulación Puntos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redención Puntos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escaneo Cédula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclusión extranjeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descuentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No aplicado aliados SU+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desuscripción del programa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desuscribir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inconformidad servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio Call TC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC Negada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promoción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promoción tarjeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobranza de la Tarjeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promociones y ofertas con la Tarjeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promoción no ofrecida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio EDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio Call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio Concesiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contaminación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falla Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suministro errado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producto Agotado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facturación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura retrasada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura inexistente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura Perdida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio Errado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información Inoportuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chip No Leido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baño no disponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baño Descuidado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehiculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapa Tanque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalación afectada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billete Falso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocolos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inconformidad con protocolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robo EDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion errada de producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipos defectuosos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceso de Ruido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suministro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtidor en ceros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daño de vehiculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Señalización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inconformidad con promoción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agotado On the Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datafono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parqueadero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parqueadero no disponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información crédito incorrecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saldo no actualizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugerencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asesoría y experiencia</t>
   </si>
   <si>
     <t xml:space="preserve">Servicio </t>
   </si>
   <si>
-    <t>Comunicación</t>
-  </si>
-  <si>
-    <t>Sitio web</t>
-  </si>
-  <si>
-    <t>Servicio post venta</t>
-  </si>
-  <si>
-    <t>Políticas Comerciales</t>
-  </si>
-  <si>
-    <t>Programa</t>
-  </si>
-  <si>
-    <t>Beneficios de la tarjeta</t>
-  </si>
-  <si>
-    <t>Credito cuenta corriente</t>
-  </si>
-  <si>
-    <t>Felicitación</t>
+    <t xml:space="preserve">Comunicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitio web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio post venta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticas Comerciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficios de la tarjeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credito cuenta corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felicitación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -845,323 +874,238 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2E75B5"/>
-        <bgColor rgb="FF2E75B5"/>
+        <bgColor rgb="FF0066CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEAF6"/>
-        <bgColor rgb="FFDEEAF6"/>
+        <bgColor rgb="FFE2EFD9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFEF2CB"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFEF2CB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFE2EFD9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFD9"/>
-        <bgColor rgb="FFE2EFD9"/>
+        <bgColor rgb="FFDEEAF6"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border/>
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFDEEAF6"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFE2EFD9"/>
+      <rgbColor rgb="FFFEF2CB"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF2E75B5"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="0563C1"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D94" activeCellId="0" sqref="D94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.5"/>
-    <col customWidth="1" min="2" max="2" width="14.88"/>
-    <col customWidth="1" min="3" max="3" width="24.63"/>
-    <col customWidth="1" min="4" max="4" width="47.63"/>
-    <col customWidth="1" min="5" max="5" width="8.0"/>
-    <col customWidth="1" min="6" max="6" width="20.88"/>
-    <col customWidth="1" min="7" max="8" width="9.38"/>
-    <col customWidth="1" min="9" max="9" width="25.63"/>
-    <col customWidth="1" min="10" max="26" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="10" style="0" width="9.38"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1215,7 +1159,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1238,7 +1182,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1261,7 +1205,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1288,7 +1232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1315,7 +1259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1338,7 +1282,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1305,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1384,7 +1328,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1351,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1430,7 +1374,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1397,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1476,7 +1420,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1499,7 +1443,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1522,7 +1466,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1545,7 +1489,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1568,7 +1512,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1593,7 +1537,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1616,7 +1560,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1637,7 +1581,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1658,7 +1602,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1679,7 +1623,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1702,7 +1646,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1725,7 +1669,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1748,7 +1692,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1771,7 +1715,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1794,7 +1738,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +1761,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -1840,7 +1784,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1863,7 +1807,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -1886,7 +1830,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1909,7 +1853,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1932,7 +1876,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1955,7 +1899,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1978,7 +1922,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2001,7 +1945,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -2024,7 +1968,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -2049,7 +1993,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -2074,7 +2018,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
@@ -2099,7 +2043,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
@@ -2122,7 +2066,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -2145,7 +2089,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -2168,7 +2112,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -2191,7 +2135,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -2214,7 +2158,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -2237,7 +2181,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>9</v>
       </c>
@@ -2260,7 +2204,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -2283,7 +2227,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
@@ -2306,7 +2250,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -2329,7 +2273,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
@@ -2352,7 +2296,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
@@ -2375,7 +2319,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -2398,7 +2342,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -2421,7 +2365,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -2444,7 +2388,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -2467,7 +2411,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -2490,7 +2434,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -2513,7 +2457,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -2536,7 +2480,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
@@ -2559,7 +2503,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -2586,7 +2530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -2613,7 +2557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -2636,7 +2580,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
@@ -2659,7 +2603,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>9</v>
       </c>
@@ -2684,7 +2628,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -2707,7 +2651,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
@@ -2730,7 +2674,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -2755,7 +2699,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -2778,7 +2722,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -2801,7 +2745,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>9</v>
       </c>
@@ -2824,7 +2768,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>9</v>
       </c>
@@ -2847,7 +2791,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
@@ -2870,7 +2814,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>9</v>
       </c>
@@ -2893,7 +2837,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
@@ -2918,7 +2862,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -2941,7 +2885,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -2966,7 +2910,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -2991,7 +2935,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>9</v>
       </c>
@@ -3014,7 +2958,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
@@ -3037,7 +2981,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -3060,7 +3004,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>9</v>
       </c>
@@ -3085,7 +3029,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>9</v>
       </c>
@@ -3108,7 +3052,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>9</v>
       </c>
@@ -3131,7 +3075,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>9</v>
       </c>
@@ -3156,7 +3100,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -3181,7 +3125,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
@@ -3204,7 +3148,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
@@ -3227,7 +3171,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>9</v>
       </c>
@@ -3250,7 +3194,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -3273,7 +3217,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>9</v>
       </c>
@@ -3296,7 +3240,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -3321,7 +3265,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -3344,7 +3288,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -3369,7 +3313,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
@@ -3392,7 +3336,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -3415,7 +3359,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>9</v>
       </c>
@@ -3438,7 +3382,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -3461,7 +3405,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
@@ -3486,7 +3430,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -3509,7 +3453,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
@@ -3532,7 +3476,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
@@ -3555,7 +3499,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
         <v>144</v>
       </c>
@@ -3582,7 +3526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>144</v>
       </c>
@@ -3609,7 +3553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
         <v>144</v>
       </c>
@@ -3632,7 +3576,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
         <v>144</v>
       </c>
@@ -3659,7 +3603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
         <v>144</v>
       </c>
@@ -3682,7 +3626,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
         <v>144</v>
       </c>
@@ -3709,7 +3653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
         <v>144</v>
       </c>
@@ -3732,7 +3676,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>144</v>
       </c>
@@ -3755,7 +3699,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>144</v>
       </c>
@@ -3782,7 +3726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>144</v>
       </c>
@@ -3809,7 +3753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>144</v>
       </c>
@@ -3836,7 +3780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>144</v>
       </c>
@@ -3863,7 +3807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>144</v>
       </c>
@@ -3890,7 +3834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>144</v>
       </c>
@@ -3917,7 +3861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
         <v>144</v>
       </c>
@@ -3940,7 +3884,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>144</v>
       </c>
@@ -3965,7 +3909,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>144</v>
       </c>
@@ -3988,7 +3932,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>144</v>
       </c>
@@ -4013,7 +3957,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>144</v>
       </c>
@@ -4038,7 +3982,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>144</v>
       </c>
@@ -4063,7 +4007,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>144</v>
       </c>
@@ -4088,7 +4032,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>144</v>
       </c>
@@ -4111,7 +4055,7 @@
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>144</v>
       </c>
@@ -4134,7 +4078,7 @@
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>144</v>
       </c>
@@ -4157,7 +4101,7 @@
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>144</v>
       </c>
@@ -4180,7 +4124,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>144</v>
       </c>
@@ -4203,7 +4147,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>144</v>
       </c>
@@ -4226,7 +4170,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>144</v>
       </c>
@@ -4249,7 +4193,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>144</v>
       </c>
@@ -4272,7 +4216,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>144</v>
       </c>
@@ -4295,7 +4239,7 @@
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>144</v>
       </c>
@@ -4318,7 +4262,7 @@
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>144</v>
       </c>
@@ -4341,7 +4285,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>144</v>
       </c>
@@ -4362,7 +4306,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>144</v>
       </c>
@@ -4385,7 +4329,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
         <v>144</v>
       </c>
@@ -4408,7 +4352,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
         <v>144</v>
       </c>
@@ -4429,7 +4373,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>144</v>
       </c>
@@ -4454,7 +4398,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>144</v>
       </c>
@@ -4479,7 +4423,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>144</v>
       </c>
@@ -4504,7 +4448,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>144</v>
       </c>
@@ -4529,7 +4473,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>144</v>
       </c>
@@ -4552,7 +4496,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>144</v>
       </c>
@@ -4575,7 +4519,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>144</v>
       </c>
@@ -4600,7 +4544,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
         <v>144</v>
       </c>
@@ -4627,7 +4571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
         <v>144</v>
       </c>
@@ -4652,7 +4596,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
         <v>144</v>
       </c>
@@ -4677,7 +4621,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
         <v>144</v>
       </c>
@@ -4702,7 +4646,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
         <v>144</v>
       </c>
@@ -4727,7 +4671,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
         <v>144</v>
       </c>
@@ -4750,7 +4694,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
         <v>144</v>
       </c>
@@ -4773,7 +4717,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
         <v>144</v>
       </c>
@@ -4796,7 +4740,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
         <v>144</v>
       </c>
@@ -4821,7 +4765,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
         <v>144</v>
       </c>
@@ -4848,7 +4792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>144</v>
       </c>
@@ -4875,7 +4819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>144</v>
       </c>
@@ -4902,7 +4846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>144</v>
       </c>
@@ -4927,7 +4871,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>144</v>
       </c>
@@ -4952,7 +4896,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>144</v>
       </c>
@@ -4975,7 +4919,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
         <v>144</v>
       </c>
@@ -4998,7 +4942,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
         <v>144</v>
       </c>
@@ -5023,7 +4967,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
         <v>144</v>
       </c>
@@ -5048,7 +4992,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
         <v>144</v>
       </c>
@@ -5073,7 +5017,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
         <v>144</v>
       </c>
@@ -5098,7 +5042,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
         <v>144</v>
       </c>
@@ -5121,7 +5065,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
         <v>144</v>
       </c>
@@ -5146,7 +5090,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
         <v>144</v>
       </c>
@@ -5171,7 +5115,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
         <v>144</v>
       </c>
@@ -5196,7 +5140,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
         <v>144</v>
       </c>
@@ -5221,7 +5165,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
         <v>144</v>
       </c>
@@ -5246,7 +5190,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
         <v>144</v>
       </c>
@@ -5269,7 +5213,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
         <v>144</v>
       </c>
@@ -5294,7 +5238,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
         <v>144</v>
       </c>
@@ -5317,7 +5261,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
         <v>144</v>
       </c>
@@ -5342,7 +5286,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
         <v>144</v>
       </c>
@@ -5367,7 +5311,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
         <v>144</v>
       </c>
@@ -5390,7 +5334,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
         <v>144</v>
       </c>
@@ -5413,7 +5357,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
         <v>144</v>
       </c>
@@ -5436,7 +5380,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
         <v>144</v>
       </c>
@@ -5461,7 +5405,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
         <v>144</v>
       </c>
@@ -5484,7 +5428,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
         <v>144</v>
       </c>
@@ -5507,7 +5451,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
         <v>144</v>
       </c>
@@ -5532,7 +5476,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
         <v>144</v>
       </c>
@@ -5557,7 +5501,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
         <v>144</v>
       </c>
@@ -5582,7 +5526,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
         <v>144</v>
       </c>
@@ -5607,7 +5551,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
         <v>144</v>
       </c>
@@ -5632,7 +5576,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="s">
         <v>255</v>
       </c>
@@ -5655,7 +5599,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="s">
         <v>255</v>
       </c>
@@ -5678,7 +5622,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="s">
         <v>255</v>
       </c>
@@ -5701,7 +5645,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="s">
         <v>255</v>
       </c>
@@ -5724,7 +5668,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="s">
         <v>255</v>
       </c>
@@ -5747,7 +5691,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="s">
         <v>255</v>
       </c>
@@ -5770,7 +5714,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="s">
         <v>255</v>
       </c>
@@ -5793,7 +5737,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="9" t="s">
         <v>255</v>
       </c>
@@ -5816,7 +5760,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="s">
         <v>255</v>
       </c>
@@ -5839,7 +5783,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="s">
         <v>255</v>
       </c>
@@ -5862,7 +5806,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="s">
         <v>255</v>
       </c>
@@ -5885,7 +5829,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="9" t="s">
         <v>255</v>
       </c>
@@ -5908,7 +5852,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="s">
         <v>255</v>
       </c>
@@ -5931,7 +5875,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="9" t="s">
         <v>255</v>
       </c>
@@ -5954,7 +5898,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="s">
         <v>255</v>
       </c>
@@ -5977,7 +5921,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
         <v>255</v>
       </c>
@@ -6000,7 +5944,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="s">
         <v>255</v>
       </c>
@@ -6023,7 +5967,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="9" t="s">
         <v>255</v>
       </c>
@@ -6046,7 +5990,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="10" t="s">
         <v>265</v>
       </c>
@@ -6069,7 +6013,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="10" t="s">
         <v>265</v>
       </c>
@@ -6092,7 +6036,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="10" t="s">
         <v>265</v>
       </c>
@@ -6115,7 +6059,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="10" t="s">
         <v>265</v>
       </c>
@@ -6138,7 +6082,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="10" t="s">
         <v>265</v>
       </c>
@@ -6161,7 +6105,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="10" t="s">
         <v>265</v>
       </c>
@@ -6184,7 +6128,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="10" t="s">
         <v>265</v>
       </c>
@@ -6207,7 +6151,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="10" t="s">
         <v>265</v>
       </c>
@@ -6230,7 +6174,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="10" t="s">
         <v>265</v>
       </c>
@@ -6253,7 +6197,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="10" t="s">
         <v>265</v>
       </c>
@@ -6276,7 +6220,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="10" t="s">
         <v>265</v>
       </c>
@@ -6299,7 +6243,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="10" t="s">
         <v>265</v>
       </c>
@@ -6322,7 +6266,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="10" t="s">
         <v>265</v>
       </c>
@@ -6345,7 +6289,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="10" t="s">
         <v>265</v>
       </c>
@@ -6368,7 +6312,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="10" t="s">
         <v>265</v>
       </c>
@@ -6391,7 +6335,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="10" t="s">
         <v>265</v>
       </c>
@@ -6414,7 +6358,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="10" t="s">
         <v>265</v>
       </c>
@@ -6437,7 +6381,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="10" t="s">
         <v>265</v>
       </c>
@@ -6460,793 +6404,797 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="$A$1:$I$223"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
+  <autoFilter ref="A1:I223"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>